--- a/08_Protect_Mode/17 10-10-12分页.xlsx
+++ b/08_Protect_Mode/17 10-10-12分页.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F179BF74-56FE-4759-84AC-173AD6B04641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73F1328-91E2-4074-9669-AD40734CE933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、10-10-12分页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1）将线性地址分为3各部分，前10位，中间10位，后12位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +200,10 @@
   </si>
   <si>
     <t>6）修改字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、10-10-12分页(12 -&gt;页大小4k; 10 -&gt;页表、页目录表的长度，单位4字节)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,6 +370,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>82512</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CDE2EB-949D-ABDE-8AE7-93BA9185B6BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="1950720"/>
+          <a:ext cx="6148032" cy="4792980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -846,7 +895,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:P6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -869,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -920,37 +969,37 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C19" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C21" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -960,6 +1009,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -975,103 +1025,103 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="I16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="3:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
